--- a/Exoplanets/GJ9827d/ExoCTK_results.xlsx
+++ b/Exoplanets/GJ9827d/ExoCTK_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\Exoplanets\GJ9827d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F336E5-EB48-45DE-9847-D236C35D9343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46F3774-C416-49A6-A7CE-7CE3E9E29D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{FD485E45-5400-4809-8075-6517CC8BF8A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="28">
   <si>
     <t>Teff</t>
   </si>
@@ -104,6 +104,12 @@
   <si>
     <t>HST/WFC3_IR.G141</t>
   </si>
+  <si>
+    <t>NIRCam.F210M.CLEARP.MASKSWB</t>
+  </si>
+  <si>
+    <t>NIRSpec.F290LP.G395H.S200A1</t>
+  </si>
 </sst>
 </file>
 
@@ -143,9 +149,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7459B0-01F0-423D-9E42-EFF86DA61453}">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3469,6 +3476,306 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>4340</v>
+      </c>
+      <c r="B61" s="2">
+        <v>4.66</v>
+      </c>
+      <c r="C61" s="2">
+        <v>-0.26</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="G61" s="2">
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="H61" s="2">
+        <v>2.2320000000000002</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="K61" s="2">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="L61" s="2">
+        <v>9.4E-2</v>
+      </c>
+      <c r="M61" s="2">
+        <v>-0.20300000000000001</v>
+      </c>
+      <c r="N61" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="O61" s="2">
+        <v>0.104</v>
+      </c>
+      <c r="P61" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>4340</v>
+      </c>
+      <c r="B62" s="2">
+        <v>4.66</v>
+      </c>
+      <c r="C62" s="2">
+        <v>-0.26</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="2">
+        <v>2.879</v>
+      </c>
+      <c r="G62" s="2">
+        <v>2.9380000000000002</v>
+      </c>
+      <c r="H62" s="2">
+        <v>2.9980000000000002</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="J62" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="K62" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L62" s="2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="M62" s="2">
+        <v>-0.18099999999999999</v>
+      </c>
+      <c r="N62" s="2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="O62" s="2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="P62" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>4340</v>
+      </c>
+      <c r="B63" s="2">
+        <v>4.66</v>
+      </c>
+      <c r="C63" s="2">
+        <v>-0.26</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="2">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="G63" s="2">
+        <v>3.06</v>
+      </c>
+      <c r="H63" s="2">
+        <v>3.121</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="J63" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="K63" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="M63" s="2">
+        <v>-0.222</v>
+      </c>
+      <c r="N63" s="2">
+        <v>0.112</v>
+      </c>
+      <c r="O63" s="2">
+        <v>0.105</v>
+      </c>
+      <c r="P63" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>4340</v>
+      </c>
+      <c r="B64" s="2">
+        <v>4.66</v>
+      </c>
+      <c r="C64" s="2">
+        <v>-0.26</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="2">
+        <v>3.125</v>
+      </c>
+      <c r="G64" s="2">
+        <v>3.1840000000000002</v>
+      </c>
+      <c r="H64" s="2">
+        <v>3.2440000000000002</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="J64" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K64" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0.109</v>
+      </c>
+      <c r="M64" s="2">
+        <v>-0.20200000000000001</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="O64" s="2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>4340</v>
+      </c>
+      <c r="B65" s="2">
+        <v>4.66</v>
+      </c>
+      <c r="C65" s="2">
+        <v>-0.26</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="2">
+        <v>3.2480000000000002</v>
+      </c>
+      <c r="G65" s="2">
+        <v>3.3069999999999999</v>
+      </c>
+      <c r="H65" s="2">
+        <v>3.367</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="J65" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K65" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="M65" s="2">
+        <v>-0.16800000000000001</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="O65" s="2">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P65" s="2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>4340</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4.66</v>
+      </c>
+      <c r="C66" s="2">
+        <v>-0.26</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="2">
+        <v>3.371</v>
+      </c>
+      <c r="G66" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="H66" s="2">
+        <v>3.49</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0.442</v>
+      </c>
+      <c r="J66" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="L66" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="M66" s="2">
+        <v>-0.20100000000000001</v>
+      </c>
+      <c r="N66" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="O66" s="2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="P66" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
